--- a/_mdl/IexWznmDpl_msdc.xlsx
+++ b/_mdl/IexWznmDpl_msdc.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpsitech/doc/msdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E86E6-814B-8F49-A28A-7B3A0A152400}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B25E93-0D91-754C-9540-4AC6543AB754}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="460" windowWidth="25040" windowHeight="20400" tabRatio="346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="3780" windowWidth="25040" windowHeight="20400" tabRatio="346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IexWznmDpl_wzem" sheetId="1" r:id="rId1"/>
+    <sheet name="IexWznmDpl_msdc" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>sref</t>
   </si>
@@ -169,23 +169,27 @@
   </si>
   <si>
     <t>spinnaker</t>
+  </si>
+  <si>
+    <t>IexWznmDpl v0.9.15</t>
+  </si>
+  <si>
+    <t>ImeIMComponent.end</t>
+  </si>
+  <si>
+    <t>ImeIMRelease.end</t>
+  </si>
+  <si>
+    <t>ImeIRMComponentMLibrary.end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -205,6 +209,17 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,13 +241,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -574,319 +589,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
